--- a/biology/Médecine/Arnaud_du_Boistesselin/Arnaud_du_Boistesselin.xlsx
+++ b/biology/Médecine/Arnaud_du_Boistesselin/Arnaud_du_Boistesselin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnaud du Boistesselin (né le 6 septembre 1951 à Paris) est un photographe français. Après avoir vécu 12 ans au Caire, en Égypte, de janvier 2001 à 2013, il exerce à Marseille.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de biologie, il s'occupe de la communication de la société de cosmétique Fernand Aubry de 1974 à 1976.
 De 1976 à 1979, il est nommé à la direction du Service Photographique du CHU Pitié-Salpétrière et crée l'unité d'iconographie médicale avec photothèque, cinémathèque (techniques opératoires, de réanimation, de manipulations de laboratoire, etc.)
@@ -550,13 +564,15 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alger. Ville et architecture. 1830-1960 - In Visu – INHA/Editions Honoré Clair, 2016[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alger. Ville et architecture. 1830-1960 - In Visu – INHA/Editions Honoré Clair, 2016
 L’art de l’icône, Citadelle et Mazenot, Paris, 2014
-"Le rideau des femmes", texte et photos, Revue des femmes philosophes, n°2-3, UNESCO, 2013, p. 164-198[2]
-Le Caire, portrait de ville - Cité de l'Architecture et du Patrimoine[3], 2012
-Tunis, architectures 1860 - 1960 - Éditions Honoré Clair; Elyzad[4]
+"Le rideau des femmes", texte et photos, Revue des femmes philosophes, n°2-3, UNESCO, 2013, p. 164-198
+Le Caire, portrait de ville - Cité de l'Architecture et du Patrimoine, 2012
+Tunis, architectures 1860 - 1960 - Éditions Honoré Clair; Elyzad
 Suez, histoire et architecture XIXe – XXe siècles - Institut français d'archéologie orientale
 Ismaïlia, architectures XIXe – XXe siècles - Institut français d'archéologie orientale
 Portraits des invités du Centre - Centre français de culture et de coopération du Caire
@@ -606,10 +622,12 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« L'épopée du canal de Suez » -  Institut du monde arabe de Paris, 2018
-« Le Caire 2003 : portraits » - Institut du monde arabe de Paris[5], 2011
+« Le Caire 2003 : portraits » - Institut du monde arabe de Paris, 2011
 « Entrées ! Halls et escaliers tunisois » - Institut national d'histoire de l'art- Galerie Colbert, 2011
 « Patrimoine d'habitats, des lieux d'habitation égyptiens » - Centre français de culture et de coopération du Caire
 « Portraits : lʼimmeuble Yacoubian », portraits des participants au film « Lʼimmeuble Yacoubian » - Centre français de culture et de coopération du Caire, dʼHéliopolis et dʼAlexandrie.
@@ -626,7 +644,7 @@
 « European visions of Egypt », représentant la France, Beit Zeinab Khatoun, le Caire et Bibliotheca Alexandrina, Alexandrie
 « Gens de la rue » au Centre français de culture et de coopération du Caire
 « Ismaïlia » au Palais de la culture dʼIsmaïlia après une animation pédagogique sur la photographie avec les enfants des écoles francophones
-« Quand les sciences parlent arabe » Réalisation de lʼensemble des photographies pour lʼexposition, catalogue, cédérom, presse magazine… avec le Centre français de culture et de coopération du Caire[6]
+« Quand les sciences parlent arabe » Réalisation de lʼensemble des photographies pour lʼexposition, catalogue, cédérom, presse magazine… avec le Centre français de culture et de coopération du Caire
 « Parfums dʼÉgypte » avec le Centre français de culture et de coopération du Caire</t>
         </is>
       </c>
